--- a/data/trans_dic/P78C9_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C9_2023-Estudios-trans_dic.xlsx
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>72,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>72,49%</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>80,65%</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 100,0</t>
+          <t>13,78; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,86; 100,0</t>
+          <t>20,33; 100,0</t>
         </is>
       </c>
     </row>
